--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail11 Features.xlsx
@@ -5547,7 +5547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5558,29 +5558,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5601,115 +5599,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5726,72 +5714,66 @@
         <v>2.025009243632335e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.685409493400748</v>
+        <v>1.384696191897486e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.58230264185627</v>
+        <v>1.037994127395213e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.384696191897486e-06</v>
+        <v>-0.1140914304284211</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.037994127395213e-06</v>
+        <v>0.32312085108517</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1140914304284211</v>
+        <v>0.117128102740195</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.32312085108517</v>
+        <v>1.92654049935386</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.117128102740195</v>
+        <v>3.128594695204649</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.946978017688698</v>
+        <v>7.444563029812488</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.128594695204649</v>
+        <v>2.052472521720624e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.444563029812488</v>
+        <v>28835393417.65382</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.052472521720624e-18</v>
+        <v>4.191732620863882e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>28835393417.65382</v>
+        <v>1706.589674925807</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.191732620863882e-09</v>
+        <v>8.463096939537775e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1706.589674925807</v>
+        <v>13.27035482623383</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>8.463096939537775e-05</v>
+        <v>1.040877593919035</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.27035482623383</v>
+        <v>0.01490370981860562</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.040877593919035</v>
+        <v>5.284456108680383</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01490370981860562</v>
+        <v>0.9658872279521176</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.284456108680383</v>
+        <v>1.037507818985987</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9658872279521176</v>
+        <v>259</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.037507818985987</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>259</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>5.916033374487464</v>
       </c>
     </row>
@@ -5806,72 +5788,66 @@
         <v>1.479766649615723e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.484392388040548</v>
+        <v>1.013076052773105e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>13.41052735296479</v>
+        <v>1.018179922683792e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.013076052773105e-06</v>
+        <v>-0.1142286439797776</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.018179922683792e-06</v>
+        <v>0.3147134878434406</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1142286439797776</v>
+        <v>0.1117967273635914</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3147134878434406</v>
+        <v>1.924692530474867</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1117967273635914</v>
+        <v>3.04904342146903</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.943759835864399</v>
+        <v>7.54697160676721</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.04904342146903</v>
+        <v>1.997148423563742e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7.54697160676721</v>
+        <v>29747256298.21333</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.997148423563742e-18</v>
+        <v>4.061788878606741e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>29747256298.21333</v>
+        <v>1767.275156672688</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.061788878606741e-09</v>
+        <v>7.884114119896153e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1767.275156672688</v>
+        <v>11.28699843211784</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>7.884114119896153e-05</v>
+        <v>1.255275623364034</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.28699843211784</v>
+        <v>0.01004407232611037</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.255275623364034</v>
+        <v>5.156375002633887</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01004407232611037</v>
+        <v>0.9657034662220779</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.156375002633887</v>
+        <v>1.009945889145763</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9657034662220779</v>
+        <v>275</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.009945889145763</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>275</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>4.632827332561451</v>
       </c>
     </row>
@@ -5886,72 +5862,66 @@
         <v>1.100657905277168e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.144628173699703</v>
+        <v>7.459642296020833e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>11.45949563060203</v>
+        <v>1.003645716511474e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.459642296020833e-07</v>
+        <v>-0.1130782653405442</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.003645716511474e-06</v>
+        <v>0.2975801343183278</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1130782653405442</v>
+        <v>0.1010659601937379</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2975801343183278</v>
+        <v>1.924765114391482</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1010659601937379</v>
+        <v>2.947144745701974</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.945821817145653</v>
+        <v>7.572753951088762</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.947144745701974</v>
+        <v>1.983572513204939e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.572753951088762</v>
+        <v>30159695071.92753</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.983572513204939e-18</v>
+        <v>4.000154611194576e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>30159695071.92753</v>
+        <v>1804.271853284381</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.000154611194576e-09</v>
+        <v>7.254899279430428e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1804.271853284381</v>
+        <v>8.008596278349492</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>7.254899279430428e-05</v>
+        <v>1.648342552844219</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.008596278349492</v>
+        <v>0.004653119321292512</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.648342552844219</v>
+        <v>5.011012983913657</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.004653119321292512</v>
+        <v>0.9650830807638968</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.011012983913657</v>
+        <v>1.052206299873544</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9650830807638968</v>
+        <v>281</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.052206299873544</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>281</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.570625052788506</v>
       </c>
     </row>
@@ -5966,72 +5936,66 @@
         <v>8.43806890697268e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.649050688212707</v>
+        <v>5.566179784849399e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>8.803262362750512</v>
+        <v>9.928836274808401e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.566179784849399e-07</v>
+        <v>-0.1100528726627814</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>9.928836274808401e-07</v>
+        <v>0.2701395325573273</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1100528726627814</v>
+        <v>0.0848546714853549</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2701395325573273</v>
+        <v>1.929733944580326</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0848546714853549</v>
+        <v>2.948690893805009</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.948281052894101</v>
+        <v>7.706785828047801</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.948690893805009</v>
+        <v>1.915178218679596e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.706785828047801</v>
+        <v>31187352062.3146</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.915178218679596e-18</v>
+        <v>3.873270542913503e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>31187352062.3146</v>
+        <v>1862.799872945736</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.873270542913503e-09</v>
+        <v>7.272046349325725e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1862.799872945736</v>
+        <v>6.41790242192666</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>7.272046349325725e-05</v>
+        <v>1.82254957217221</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.41790242192666</v>
+        <v>0.002995317458331207</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.82254957217221</v>
+        <v>4.900556868772393</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.002995317458331207</v>
+        <v>0.9647603612627373</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.900556868772393</v>
+        <v>1.038674918416048</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9647603612627373</v>
+        <v>315</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.038674918416048</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>315</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.138251698625872</v>
       </c>
     </row>
@@ -6046,72 +6010,66 @@
         <v>6.746670598470657e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.03209535671905</v>
+        <v>4.247979183624067e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>5.849211095181957</v>
+        <v>9.847725223960626e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.247979183624067e-07</v>
+        <v>-0.1050363370967572</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>9.847725223960626e-07</v>
+        <v>0.2346498246400884</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1050363370967572</v>
+        <v>0.06591720269035682</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2346498246400884</v>
+        <v>1.929084869507392</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06591720269035682</v>
+        <v>2.853760781725192</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.949141026236576</v>
+        <v>7.795507034476054</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.853760781725192</v>
+        <v>1.871832736929803e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>7.795507034476054</v>
+        <v>31844327834.7562</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.871832736929803e-18</v>
+        <v>3.794109071280683e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>31844327834.7562</v>
+        <v>1898.152979950956</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.794109071280683e-09</v>
+        <v>7.059700337959596e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1898.152979950956</v>
+        <v>7.370263234123006</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>7.059700337959596e-05</v>
+        <v>1.428090818470344</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.370263234123006</v>
+        <v>0.003834884299144599</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.428090818470344</v>
+        <v>4.932695204507445</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.003834884299144599</v>
+        <v>0.9643408250373172</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.932695204507445</v>
+        <v>1.016359109773407</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9643408250373172</v>
+        <v>305</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.016359109773407</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>305</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>3.438100636450123</v>
       </c>
     </row>
@@ -6126,72 +6084,66 @@
         <v>5.66254885718662e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.382752901063418</v>
+        <v>3.33853425978124e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.151063455355779</v>
+        <v>9.784974193165096e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.33853425978124e-07</v>
+        <v>-0.09834264132034513</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>9.784974193165096e-07</v>
+        <v>0.1954205398918854</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.09834264132034513</v>
+        <v>0.0477397770935177</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1954205398918854</v>
+        <v>1.930513250851209</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0477397770935177</v>
+        <v>2.765398227649596</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.950702790171223</v>
+        <v>7.702558178760842</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.765398227649596</v>
+        <v>1.85544268414988e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>7.702558178760842</v>
+        <v>31182263289.55699</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.85544268414988e-18</v>
+        <v>3.876006434762681e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>31182263289.55699</v>
+        <v>1804.109160507179</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.876006434762681e-09</v>
+        <v>6.850704890842138e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1804.109160507179</v>
+        <v>10.26773128433683</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>6.850704890842138e-05</v>
+        <v>1.185459086815209</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.26773128433683</v>
+        <v>0.007222445082697702</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.185459086815209</v>
+        <v>5.014841536570312</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007222445082697702</v>
+        <v>0.9639737598243994</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>5.014841536570312</v>
+        <v>0.9764241897593245</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9639737598243994</v>
+        <v>297</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9764241897593245</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>297</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>4.140927933260315</v>
       </c>
     </row>
@@ -6206,72 +6158,66 @@
         <v>4.98654788592279e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.809082539775051</v>
+        <v>2.707673243763928e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.120334331901988</v>
+        <v>9.7349056817986e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.707673243763928e-07</v>
+        <v>-0.09056193815354026</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>9.7349056817986e-07</v>
+        <v>0.1563556116156677</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.09056193815354026</v>
+        <v>0.03257113432812932</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1563556116156677</v>
+        <v>1.927515855002386</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03257113432812932</v>
+        <v>2.584891110331813</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.948306668295921</v>
+        <v>7.793598058006546</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.584891110331813</v>
+        <v>1.812347653427938e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>7.793598058006546</v>
+        <v>30375688974.19948</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.812347653427938e-18</v>
+        <v>3.954319373293877e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>30375688974.19948</v>
+        <v>1672.221428678333</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.954319373293877e-09</v>
+        <v>6.695289631319907e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1672.221428678333</v>
+        <v>10.63221993714176</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>6.695289631319907e-05</v>
+        <v>1.264599426428854</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.63221993714176</v>
+        <v>0.007568629959129177</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.264599426428854</v>
+        <v>5.102235745279103</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.007568629959129177</v>
+        <v>0.9630102287732805</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.102235745279103</v>
+        <v>1.058640830424953</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9630102287732805</v>
+        <v>296</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.058640830424953</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>296</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>4.154697783247862</v>
       </c>
     </row>
@@ -6286,72 +6232,66 @@
         <v>4.579800648194403e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3840578037106018</v>
+        <v>2.260228852466019e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.144335079942326</v>
+        <v>9.693705103943213e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.260228852466019e-07</v>
+        <v>-0.08230314065147765</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>9.693705103943213e-07</v>
+        <v>0.1191742541716396</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.08230314065147765</v>
+        <v>0.02092696773860832</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1191742541716396</v>
+        <v>1.92163997725206</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02092696773860832</v>
+        <v>2.609518393035529</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.946085363521261</v>
+        <v>8.024865679402646</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.609518393035529</v>
+        <v>1.684890590189589e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.024865679402646</v>
+        <v>32249045607.5963</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.684890590189589e-18</v>
+        <v>3.722921609939223e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>32249045607.5963</v>
+        <v>1752.287801976435</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.722921609939223e-09</v>
+        <v>6.427952907862373e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1752.287801976435</v>
+        <v>7.422651858758208</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>6.427952907862373e-05</v>
+        <v>1.700146343819774</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.422651858758208</v>
+        <v>0.003541529546646062</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.700146343819774</v>
+        <v>5.074419766291012</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.003541529546646062</v>
+        <v>0.9640312458225423</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5.074419766291012</v>
+        <v>1.041248891480783</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9640312458225423</v>
+        <v>302</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.041248891480783</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>302</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>3.581868511174107</v>
       </c>
     </row>
@@ -6366,72 +6306,66 @@
         <v>4.349833003005297e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.12200512596993</v>
+        <v>1.937999746475718e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.7906103133752405</v>
+        <v>9.658871940460585e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.937999746475718e-07</v>
+        <v>-0.07429297258792676</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>9.658871940460585e-07</v>
+        <v>0.08488077754320612</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.07429297258792676</v>
+        <v>0.01269550791081534</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08488077754320612</v>
+        <v>1.915423972604446</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01269550791081534</v>
+        <v>2.606385497770807</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.94006891379186</v>
+        <v>8.271459018586036</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.606385497770807</v>
+        <v>1.585926309837015e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>8.271459018586036</v>
+        <v>34595596141.14807</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.585926309837015e-18</v>
+        <v>3.464525728448498e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>34595596141.14807</v>
+        <v>1898.124265505121</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.464525728448498e-09</v>
+        <v>6.231931960741737e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1898.124265505121</v>
+        <v>5.688178384126214</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>6.231931960741737e-05</v>
+        <v>1.561900375227864</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>5.688178384126214</v>
+        <v>0.002016364851547187</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.561900375227864</v>
+        <v>5.073603383876159</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.002016364851547187</v>
+        <v>0.9648556756321409</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.073603383876159</v>
+        <v>1.019285830868351</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9648556756321409</v>
+        <v>324</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.019285830868351</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>324</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>3.5940416271086</v>
       </c>
     </row>
@@ -6446,72 +6380,66 @@
         <v>4.231128687855536e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.01443869656056405</v>
+        <v>1.712156082779537e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.072485224736182</v>
+        <v>9.628571188095985e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.712156082779537e-07</v>
+        <v>-0.06746911463660614</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>9.628571188095985e-07</v>
+        <v>0.05622952275276789</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06746911463660614</v>
+        <v>0.007698771672877511</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.05622952275276789</v>
+        <v>1.917294150160515</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.007698771672877511</v>
+        <v>2.625255674797108</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.940722532610442</v>
+        <v>8.311011420529178</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.625255674797108</v>
+        <v>1.470963786638542e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>8.311011420529178</v>
+        <v>37343551696.72786</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.470963786638542e-18</v>
+        <v>3.215003550613713e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>37343551696.72786</v>
+        <v>2051.31909423083</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.215003550613713e-09</v>
+        <v>6.029591774603563e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>2051.31909423083</v>
+        <v>6.44063635725637</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>6.029591774603563e-05</v>
+        <v>1.366958410114321</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>6.44063635725637</v>
+        <v>0.002501183000961707</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.366958410114321</v>
+        <v>5.242073655612418</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.002501183000961707</v>
+        <v>0.9645199856681121</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>5.242073655612418</v>
+        <v>1.040520035659708</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9645199856681121</v>
+        <v>348</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.040520035659708</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>348</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>4.388465880420368</v>
       </c>
     </row>
@@ -6526,72 +6454,66 @@
         <v>4.178657923730401e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.07415201507121305</v>
+        <v>1.560766175959057e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.184652194314562</v>
+        <v>9.601386395687136e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.560766175959057e-07</v>
+        <v>-0.06226846725169389</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>9.601386395687136e-07</v>
+        <v>0.03461383952430779</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06226846725169389</v>
+        <v>0.005068456555808859</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.03461383952430779</v>
+        <v>1.919799472135465</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.005068456555808859</v>
+        <v>2.829848587657065</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.944747182899489</v>
+        <v>8.262439814950152</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.829848587657065</v>
+        <v>1.48830904517428e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>8.262439814950152</v>
+        <v>37330137760.19225</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.48830904517428e-18</v>
+        <v>3.219239725116177e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>37330137760.19225</v>
+        <v>2074.016974130412</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.219239725116177e-09</v>
+        <v>5.201399373261649e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>2074.016974130412</v>
+        <v>7.875451109799406</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>5.201399373261649e-05</v>
+        <v>1.252425761651463</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.875451109799406</v>
+        <v>0.00322604989901004</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.252425761651463</v>
+        <v>5.747487028762284</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.00322604989901004</v>
+        <v>0.963963986707111</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>5.747487028762284</v>
+        <v>1.014523873130066</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.963963986707111</v>
+        <v>343</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.014523873130066</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>343</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>6.303845749117739</v>
       </c>
     </row>
@@ -6606,72 +6528,66 @@
         <v>4.163200453896935e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.09301882755864961</v>
+        <v>1.466651669992715e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.228320322785161</v>
+        <v>9.57622805762408e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.466651669992715e-07</v>
+        <v>-0.05872427361304469</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>9.57622805762408e-07</v>
+        <v>0.02065975079080844</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05872427361304469</v>
+        <v>0.003872675596291501</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.02065975079080844</v>
+        <v>1.925390638971325</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003872675596291501</v>
+        <v>2.816833199302879</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.945452624744102</v>
+        <v>8.177617975925841</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.816833199302879</v>
+        <v>1.519343956488054e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>8.177617975925841</v>
+        <v>37335053259.09418</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.519343956488054e-18</v>
+        <v>3.230935216903455e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>37335053259.09418</v>
+        <v>2117.822963706295</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.230935216903455e-09</v>
+        <v>3.080980846960595e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2117.822963706295</v>
+        <v>10.11878131267139</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>3.080980846960595e-05</v>
+        <v>1.15640984525221</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.11878131267139</v>
+        <v>0.003154608132419161</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.15640984525221</v>
+        <v>6.878191443284873</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.003154608132419161</v>
+        <v>0.9644001578454799</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>6.878191443284873</v>
+        <v>0.9959021731840993</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9644001578454799</v>
+        <v>307</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.9959021731840993</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>307</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>10.39760245530023</v>
       </c>
     </row>
@@ -6686,72 +6602,66 @@
         <v>4.166262280781637e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.09201068332188637</v>
+        <v>1.414957196675137e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.246480158513832</v>
+        <v>9.552260571116467e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.414957196675137e-07</v>
+        <v>-0.05660798969708684</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>9.552260571116467e-07</v>
+        <v>0.01443916184263723</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05660798969708684</v>
+        <v>0.003412085583161516</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.01443916184263723</v>
+        <v>1.925342295163829</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003412085583161516</v>
+        <v>2.852568293445061</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.947912837266229</v>
+        <v>8.132057344280923</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.852568293445061</v>
+        <v>1.536416187932285e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>8.132057344280923</v>
+        <v>36771534422.34305</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.536416187932285e-18</v>
+        <v>3.282348079284016e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>36771534422.34305</v>
+        <v>2077.458609177437</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.282348079284016e-09</v>
+        <v>2.041157956951289e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2077.458609177437</v>
+        <v>11.7681993167231</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>2.041157956951289e-05</v>
+        <v>1.637175660605009</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.7681993167231</v>
+        <v>0.002826810169772839</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.637175660605009</v>
+        <v>7.994038327406314</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.002826810169772839</v>
+        <v>0.9648693061147026</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>7.994038327406314</v>
+        <v>1.031060307680629</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9648693061147026</v>
+        <v>281</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.031060307680629</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>281</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>14.73382749709393</v>
       </c>
     </row>
@@ -6766,72 +6676,66 @@
         <v>4.17714315770118e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.08146690809727052</v>
+        <v>1.387540456411937e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.254892310327932</v>
+        <v>9.528930303195253e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.387540456411937e-07</v>
+        <v>-0.05536364274061695</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>9.528930303195253e-07</v>
+        <v>0.01268474897506921</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05536364274061695</v>
+        <v>0.003225815914661988</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.01268474897506921</v>
+        <v>1.929116159786365</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003225815914661988</v>
+        <v>2.919758010462486</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.956611005770877</v>
+        <v>7.470638477505033</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.919758010462486</v>
+        <v>9.80210769596932e-19</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>7.470638477505033</v>
+        <v>56263946013.73222</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>9.80210769596932e-19</v>
+        <v>2.141626192371637e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>56263946013.73222</v>
+        <v>3102.986207516252</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.141626192371637e-09</v>
+        <v>8.706586008389838e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>3102.986207516252</v>
+        <v>7.567923458468176</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>8.706586008389838e-06</v>
+        <v>2.435127752471502</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.567923458468176</v>
+        <v>0.0004986563531412482</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>2.435127752471502</v>
+        <v>8.550975458215815</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0004986563531412482</v>
+        <v>0.9644244154398042</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.550975458215815</v>
+        <v>0.9095355701148883</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9644244154398042</v>
+        <v>271</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.9095355701148883</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>271</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>17.21196936101639</v>
       </c>
     </row>
@@ -6846,72 +6750,66 @@
         <v>4.190105444421828e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.06589591263456049</v>
+        <v>1.373515258567094e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.259015832991101</v>
+        <v>9.505937150266389e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.373515258567094e-07</v>
+        <v>-0.05463225172703643</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>9.505937150266389e-07</v>
+        <v>0.01256636406378085</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05463225172703643</v>
+        <v>0.003142687149290098</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.01256636406378085</v>
+        <v>1.932552549747021</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003142687149290098</v>
+        <v>3.506251994148069</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.961207392492532</v>
+        <v>8.293813632770737</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.506251994148069</v>
+        <v>4.855616921050867e-19</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>8.293813632770737</v>
+        <v>112784992029.1549</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.855616921050867e-19</v>
+        <v>1.069666973462874e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>112784992029.1549</v>
+        <v>6176.565375927794</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.069666973462874e-09</v>
+        <v>6.214806284753796e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>6176.565375927794</v>
+        <v>8.336778504460703</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>6.214806284753796e-06</v>
+        <v>1.52132327546446</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.336778504460703</v>
+        <v>0.0004319406947256139</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.52132327546446</v>
+        <v>8.647315661882274</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0004319406947256139</v>
+        <v>0.9639117968226757</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.647315661882274</v>
+        <v>0.755599762170546</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9639117968226757</v>
+        <v>271</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.755599762170546</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>271</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>17.97079707558125</v>
       </c>
     </row>
@@ -6926,72 +6824,66 @@
         <v>4.201314960177287e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.04772807404961108</v>
+        <v>1.368191119560963e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.261469619014916</v>
+        <v>9.483097502905061e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.368191119560963e-07</v>
+        <v>-0.05427381445277632</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>9.483097502905061e-07</v>
+        <v>0.01274859341062972</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05427381445277632</v>
+        <v>0.003108394899258621</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.01274859341062972</v>
+        <v>1.928330197255978</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003108394899258621</v>
+        <v>3.907767572030326</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.963180342468334</v>
+        <v>8.071864189190137</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.907767572030326</v>
+        <v>5.126314755653814e-19</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.071864189190137</v>
+        <v>103985494045.3539</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.126314755653814e-19</v>
+        <v>1.155079869533176e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>103985494045.3539</v>
+        <v>5543.075416126058</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.155079869533176e-09</v>
+        <v>5.90394889416648e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>5543.075416126058</v>
+        <v>10.13550877481861</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>5.90394889416648e-06</v>
+        <v>1.422170650022439</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.13550877481861</v>
+        <v>0.0006065040390590383</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.422170650022439</v>
+        <v>8.717133962383063</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0006065040390590383</v>
+        <v>0.9623321749752841</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.717133962383063</v>
+        <v>0.7235525819887163</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9623321749752841</v>
+        <v>226</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.7235525819887163</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>226</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>18.23075069814782</v>
       </c>
     </row>
@@ -7006,72 +6898,66 @@
         <v>4.208242062300236e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.02836064753896454</v>
+        <v>1.366395615132966e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.263748740329089</v>
+        <v>9.46031086722923e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.366395615132966e-07</v>
+        <v>-0.05411275180515868</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>9.46031086722923e-07</v>
+        <v>0.01285080566538693</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05411275180515868</v>
+        <v>0.003093594485658885</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.01285080566538693</v>
+        <v>1.92323636552491</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003093594485658885</v>
+        <v>3.669754381955947</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.961555557768925</v>
+        <v>9.101251112106713</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.669754381955947</v>
+        <v>5.304809228207356e-19</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>9.101251112106713</v>
+        <v>97890008074.33463</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>5.304809228207356e-19</v>
+        <v>1.222848301476566e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>97890008074.33463</v>
+        <v>5083.308871474183</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.222848301476566e-09</v>
+        <v>6.916120861816927e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>5083.308871474183</v>
+        <v>10.91196862951383</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>6.916120861816927e-06</v>
+        <v>1.133738074796822</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.91196862951383</v>
+        <v>0.0008235098377578317</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.133738074796822</v>
+        <v>8.557484577209907</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0008235098377578317</v>
+        <v>0.9620305463666079</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.557484577209907</v>
+        <v>0.7949283919962873</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9620305463666079</v>
+        <v>209</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.7949283919962873</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>209</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>17.70735593884516</v>
       </c>
     </row>
@@ -7086,72 +6972,66 @@
         <v>4.209803307470964e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.008523327675925837</v>
+        <v>1.366018318579271e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.26640838979816</v>
+        <v>9.437543349392982e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.366018318579271e-07</v>
+        <v>-0.05407759618298931</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>9.437543349392982e-07</v>
+        <v>0.01287395170176001</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05407759618298931</v>
+        <v>0.003090395312517225</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.01287395170176001</v>
+        <v>1.9177178602531</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003090395312517225</v>
+        <v>3.68389022917597</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.957917456197694</v>
+        <v>8.347164684343975</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.68389022917597</v>
+        <v>6.306581329676816e-19</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.347164684343975</v>
+        <v>82741751594.0509</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>6.306581329676816e-19</v>
+        <v>1.444955705359057e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>82741751594.0509</v>
+        <v>4317.610106066137</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.444955705359057e-09</v>
+        <v>1.679114601836635e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>4317.610106066137</v>
+        <v>8.594647204222301</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>1.679114601836635e-05</v>
+        <v>1.411793438575146</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.594647204222301</v>
+        <v>0.001240327711926618</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.411793438575146</v>
+        <v>8.040224615198184</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.001240327711926618</v>
+        <v>0.9623796870044176</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.040224615198184</v>
+        <v>0.8723030559607886</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9623796870044176</v>
+        <v>210</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8723030559607886</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>15.09451167962085</v>
       </c>
     </row>
@@ -7166,72 +7046,66 @@
         <v>4.205649180592904e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.01111068982326415</v>
+        <v>1.366777990251877e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.269699106234093</v>
+        <v>9.414770566340847e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.366777990251877e-07</v>
+        <v>-0.05416076278127107</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>9.414770566340847e-07</v>
+        <v>0.01282553445696997</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05416076278127107</v>
+        <v>0.003098173182473773</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.01282553445696997</v>
+        <v>1.911983974054887</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003098173182473773</v>
+        <v>3.524607172804428</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.949642471699772</v>
+        <v>8.50031802466664</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.524607172804428</v>
+        <v>6.081372639540338e-19</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>8.50031802466664</v>
+        <v>86397545831.22411</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.081372639540338e-19</v>
+        <v>1.380589886552736e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>86397545831.22411</v>
+        <v>4539.462454516532</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.380589886552736e-09</v>
+        <v>2.994892910383854e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>4539.462454516532</v>
+        <v>8.470363620128412</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>2.994892910383854e-05</v>
+        <v>1.406590064534842</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.470363620128412</v>
+        <v>0.002148747609071989</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.406590064534842</v>
+        <v>7.30719501459121</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.002148747609071989</v>
+        <v>0.9619161552948478</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>7.30719501459121</v>
+        <v>0.8797829221424416</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9619161552948478</v>
+        <v>162</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.8797829221424416</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>162</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>12.08421030567397</v>
       </c>
     </row>
@@ -7246,72 +7120,66 @@
         <v>4.195272157804309e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.03007482206006672</v>
+        <v>1.36620507839689e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.27433116589467</v>
+        <v>9.39199131266075e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.36620507839689e-07</v>
+        <v>-0.0542720112589918</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>9.39199131266075e-07</v>
+        <v>0.01290574585811684</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.0542720112589918</v>
+        <v>0.003112298235176317</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.01290574585811684</v>
+        <v>1.90628911902341</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003112298235176317</v>
+        <v>3.427199487210029</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.946685397285838</v>
+        <v>8.442411630735624</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.427199487210029</v>
+        <v>6.165082857089514e-19</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>8.442411630735624</v>
+        <v>84270350042.31409</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>6.165082857089514e-19</v>
+        <v>1.412727837206729e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>84270350042.31409</v>
+        <v>4378.128594935654</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.412727837206729e-09</v>
+        <v>3.445656355813397e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>4378.128594935654</v>
+        <v>8.140510954056074</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>3.445656355813397e-05</v>
+        <v>1.484243645198299</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.140510954056074</v>
+        <v>0.002283364748868636</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.484243645198299</v>
+        <v>6.798693574754768</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.002283364748868636</v>
+        <v>0.9626140486225273</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>6.798693574754768</v>
+        <v>0.8450263642798788</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9626140486225273</v>
+        <v>152</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.8450263642798788</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>152</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>9.897355251290314</v>
       </c>
     </row>
@@ -7326,72 +7194,66 @@
         <v>4.17857508369869e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.04843370809198339</v>
+        <v>1.361600145402797e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.280759097586138</v>
+        <v>9.369253233734312e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.361600145402797e-07</v>
+        <v>-0.05430507121878883</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>9.369253233734312e-07</v>
+        <v>0.01334935440431474</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05430507121878883</v>
+        <v>0.003127534850895832</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.01334935440431474</v>
+        <v>1.908201027194469</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003127534850895832</v>
+        <v>3.005297194994738</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.950332592377303</v>
+        <v>8.307291453176779</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.005297194994738</v>
+        <v>8.327010548922964e-19</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>8.307291453176779</v>
+        <v>64727034789.49333</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.327010548922964e-19</v>
+        <v>1.838325960469334e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>64727034789.49333</v>
+        <v>3488.675207044756</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.838325960469334e-09</v>
+        <v>3.958098334515261e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>3488.675207044756</v>
+        <v>7.267638934772664</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>3.958098334515261e-05</v>
+        <v>1.539387568114931</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.267638934772664</v>
+        <v>0.002090611164551097</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.539387568114931</v>
+        <v>6.33446131810367</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.002090611164551097</v>
+        <v>0.9624233587421365</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>6.33446131810367</v>
+        <v>0.8893159292283968</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9624233587421365</v>
+        <v>147</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.8893159292283968</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>147</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>8.159716673017471</v>
       </c>
     </row>
@@ -7406,72 +7268,66 @@
         <v>4.155393969426572e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.06654977518926503</v>
+        <v>1.352020995548471e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.289378572273612</v>
+        <v>9.346631679656609e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.352020995548471e-07</v>
+        <v>-0.05422369444594683</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>9.346631679656609e-07</v>
+        <v>0.01424407050289937</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05422369444594683</v>
+        <v>0.003143376819363533</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.01424407050289937</v>
+        <v>1.908504084042464</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003143376819363533</v>
+        <v>3.458918148536981</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.949033064758593</v>
+        <v>7.08069117289557</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.458918148536981</v>
+        <v>1.146190234966371e-18</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>7.08069117289557</v>
+        <v>46689469795.59924</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.146190234966371e-18</v>
+        <v>2.563474008294891e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>46689469795.59924</v>
+        <v>2498.587646360925</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.563474008294891e-09</v>
+        <v>5.35262174878281e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2498.587646360925</v>
+        <v>7.140228902514256</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>5.35262174878281e-05</v>
+        <v>1.423847375672339</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.140228902514256</v>
+        <v>0.002728920122487735</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.423847375672339</v>
+        <v>5.783245503360545</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.002728920122487735</v>
+        <v>0.9627730542471734</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>5.783245503360545</v>
+        <v>0.8897363538381751</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9627730542471734</v>
+        <v>136</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8897363538381751</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>6.21760043166003</v>
       </c>
     </row>
@@ -7486,72 +7342,66 @@
         <v>4.125775815689191e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.08487120550373606</v>
+        <v>1.338453673583658e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.30022012288068</v>
+        <v>9.324209533758581e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.338453673583658e-07</v>
+        <v>-0.05406564558605201</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>9.324209533758581e-07</v>
+        <v>0.01534948447305591</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05406564558605201</v>
+        <v>0.003158927002101442</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.01534948447305591</v>
+        <v>1.909314399279719</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003158927002101442</v>
+        <v>3.385931919441156</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.944731241682104</v>
+        <v>6.355079591421323</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.385931919441156</v>
+        <v>1.780600403264112e-18</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>6.355079591421323</v>
+        <v>30052214734.70622</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.780600403264112e-18</v>
+        <v>3.983529195379731e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>30052214734.70622</v>
+        <v>1608.123632188847</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.983529195379731e-09</v>
+        <v>6.519321339805262e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>1608.123632188847</v>
+        <v>9.127925405992048</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>6.519321339805262e-05</v>
+        <v>1.502968910547895</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.127925405992048</v>
+        <v>0.005431834795533117</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.502968910547895</v>
+        <v>5.554319744135145</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.005431834795533117</v>
+        <v>0.9622236774931205</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>5.554319744135145</v>
+        <v>1.069806703769087</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9622236774931205</v>
+        <v>135</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.069806703769087</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>6.11241964706598</v>
       </c>
     </row>
@@ -7566,72 +7416,66 @@
         <v>4.090898724625425e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.1034302254797414</v>
+        <v>1.32489194176675e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.312416173974398</v>
+        <v>9.30201579023405e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.32489194176675e-07</v>
+        <v>-0.05397502384831938</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>9.30201579023405e-07</v>
+        <v>0.01619698019575</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05397502384831938</v>
+        <v>0.003175811152463412</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.01619698019575</v>
+        <v>1.920678651586284</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.003175811152463412</v>
+        <v>3.070684542199667</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.95289393900301</v>
+        <v>5.380064167559629</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.070684542199667</v>
+        <v>2.908979969292083e-18</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>5.380064167559629</v>
+        <v>18211167169.91406</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.908979969292083e-18</v>
+        <v>6.591455365489385e-09</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>18211167169.91406</v>
+        <v>964.7533444734562</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>6.591455365489385e-09</v>
+        <v>8.305350544877986e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>964.7533444734562</v>
+        <v>9.042756831705715</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>8.305350544877986e-05</v>
+        <v>1.587069229381841</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.042756831705715</v>
+        <v>0.006791405660930325</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.587069229381841</v>
+        <v>5.119908178728322</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.006791405660930325</v>
+        <v>0.9611478668504858</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>5.119908178728322</v>
+        <v>1.062243208378458</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9611478668504858</v>
+        <v>113</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.062243208378458</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>4.799197046377788</v>
       </c>
     </row>
@@ -7646,72 +7490,66 @@
         <v>4.052324376491447e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.1220598722524254</v>
+        <v>1.311992724847831e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.324901798644827</v>
+        <v>9.280042330257404e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.311992724847831e-07</v>
+        <v>-0.05395910795109334</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>9.280042330257404e-07</v>
+        <v>0.01678498521317912</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05395910795109334</v>
+        <v>0.003193424317963461</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.01678498521317912</v>
+        <v>1.918197569751078</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.003193424317963461</v>
+        <v>2.942206933757356</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.947174127453043</v>
+        <v>5.038972653010223</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.942206933757356</v>
+        <v>3.688212214175013e-18</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.038972653010223</v>
+        <v>14216870314.30122</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.688212214175013e-18</v>
+        <v>8.434336649295246e-09</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>14216870314.30122</v>
+        <v>745.4592454581856</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>8.434336649295246e-09</v>
+        <v>0.0001000315722640721</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>745.4592454581856</v>
+        <v>8.078627403085118</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001000315722640721</v>
+        <v>1.436560445059275</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.078627403085118</v>
+        <v>0.006528482610998742</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.436560445059275</v>
+        <v>4.366870294419283</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.006528482610998742</v>
+        <v>0.9619648334523256</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>4.366870294419283</v>
+        <v>1.128872588328685</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9619648334523256</v>
+        <v>89</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.128872588328685</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>2.581997372090108</v>
       </c>
     </row>
@@ -7726,72 +7564,66 @@
         <v>4.011348978193949e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.140718712818298</v>
+        <v>1.299110489306516e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.336738817294175</v>
+        <v>9.258282480558573e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.299110489306516e-07</v>
+        <v>-0.0539754835327904</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>9.258282480558573e-07</v>
+        <v>0.0172371628630694</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.0539754835327904</v>
+        <v>0.003210535460030535</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.0172371628630694</v>
+        <v>1.915875105819045</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.003210535460030535</v>
+        <v>2.773430660043725</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.95189178900227</v>
+        <v>4.940004396483396</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.773430660043725</v>
+        <v>3.837472123780602e-18</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.940004396483396</v>
+        <v>13717335040.22526</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.837472123780602e-18</v>
+        <v>8.724070420746238e-09</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>13717335040.22526</v>
+        <v>722.079018988081</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>8.724070420746238e-09</v>
+        <v>0.0001078447665371315</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>722.079018988081</v>
+        <v>8.685466883451321</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001078447665371315</v>
+        <v>1.272771432346317</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.685466883451321</v>
+        <v>0.008135521779482133</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.272771432346317</v>
+        <v>3.898441834167701</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.008135521779482133</v>
+        <v>0.9607337838180577</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.898441834167701</v>
+        <v>1.107516748816701</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9607337838180577</v>
+        <v>97</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.107516748816701</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>1.688878885905435</v>
       </c>
     </row>
@@ -7806,72 +7638,66 @@
         <v>3.968717028434829e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.1595399066976126</v>
+        <v>1.284952498036487e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.34726403455251</v>
+        <v>9.236745371847459e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.284952498036487e-07</v>
+        <v>-0.05396102435392916</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>9.236745371847459e-07</v>
+        <v>0.01764068819160084</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05396102435392916</v>
+        <v>0.003223006837746009</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.01764068819160084</v>
+        <v>1.907906515588081</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.003223006837746009</v>
+        <v>3.000048923762253</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.945952486890972</v>
+        <v>4.95531460678691</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.000048923762253</v>
+        <v>3.813795829768457e-18</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.95531460678691</v>
+        <v>13281848193.69673</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.813795829768457e-18</v>
+        <v>8.97958867483022e-09</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>13281848193.69673</v>
+        <v>672.7821551953316</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>8.97958867483022e-09</v>
+        <v>0.0001160113285847009</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>672.7821551953316</v>
+        <v>9.220273613474529</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001160113285847009</v>
+        <v>1.252614752737886</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.220273613474529</v>
+        <v>0.009862522760868967</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.252614752737886</v>
+        <v>3.631093056779634</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.009862522760868967</v>
+        <v>0.960347570648426</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.631093056779634</v>
+        <v>1.11823096815236</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.960347570648426</v>
+        <v>98</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.11823096815236</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>1.389996666132729</v>
       </c>
     </row>
@@ -7886,72 +7712,66 @@
         <v>3.925003164420345e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.1790022807979753</v>
+        <v>1.26793945806195e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.355558525998993</v>
+        <v>9.215466997868529e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.26793945806195e-07</v>
+        <v>-0.05383985968413878</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>9.215466997868529e-07</v>
+        <v>0.01800485465203236</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05383985968413878</v>
+        <v>0.003222875861254676</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.01800485465203236</v>
+        <v>1.911460500361302</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.003222875861254676</v>
+        <v>3.034505665644404</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.945808098162858</v>
+        <v>4.950126874282429</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.034505665644404</v>
+        <v>3.821793733825676e-18</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.950126874282429</v>
+        <v>13321193170.45363</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.821793733825676e-18</v>
+        <v>8.968916562540223e-09</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>13321193170.45363</v>
+        <v>678.1933017695432</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>8.968916562540223e-09</v>
+        <v>0.0001236607485532662</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>678.1933017695432</v>
+        <v>9.238046009401923</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001236607485532662</v>
+        <v>1.2764146570166</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.238046009401923</v>
+        <v>0.01055339303957623</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.2764146570166</v>
+        <v>3.589997343248009</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01055339303957623</v>
+        <v>0.9606016599719918</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.589997343248009</v>
+        <v>1.13451254591666</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9606016599719918</v>
+        <v>94</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.13451254591666</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>1.368939035863556</v>
       </c>
     </row>
@@ -7966,72 +7786,66 @@
         <v>3.880721546144007e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.1997999689418236</v>
+        <v>1.248045024758834e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.360363251368466</v>
+        <v>9.194496961033022e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.248045024758834e-07</v>
+        <v>-0.05359983603506756</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>9.194496961033022e-07</v>
+        <v>0.01834692045452253</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05359983603506756</v>
+        <v>0.003209495502120306</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.01834692045452253</v>
+        <v>1.91105273096465</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.003209495502120306</v>
+        <v>2.898320384895848</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.941673659457474</v>
+        <v>4.946358311703998</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.898320384895848</v>
+        <v>3.82761949675581e-18</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.946358311703998</v>
+        <v>13265578904.36208</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.82761949675581e-18</v>
+        <v>9.011172488725185e-09</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>13265578904.36208</v>
+        <v>673.5675750000697</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.011172488725185e-09</v>
+        <v>0.0001327154607414091</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>673.5675750000697</v>
+        <v>8.537652765490186</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001327154607414091</v>
+        <v>1.371350982041616</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.537652765490186</v>
+        <v>0.00967383096340009</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.371350982041616</v>
+        <v>3.666194187887463</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.00967383096340009</v>
+        <v>0.9598004019041544</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.666194187887463</v>
+        <v>1.130345531719928</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9598004019041544</v>
+        <v>94</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.130345531719928</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>1.46588796881757</v>
       </c>
     </row>
@@ -8046,72 +7860,66 @@
         <v>3.836034920145978e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.2225269546084923</v>
+        <v>1.225874351886697e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.360617921844661</v>
+        <v>9.173878093761892e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.225874351886697e-07</v>
+        <v>-0.05326069726285985</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>9.173878093761892e-07</v>
+        <v>0.01875448909395464</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05326069726285985</v>
+        <v>0.003188379215676765</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.01875448909395464</v>
+        <v>1.902953197760435</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.003188379215676765</v>
+        <v>2.734746435601145</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.93393935383246</v>
+        <v>4.88867861139973</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.734746435601145</v>
+        <v>3.918473647633587e-18</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.88867861139973</v>
+        <v>12989489760.49173</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.918473647633587e-18</v>
+        <v>9.171717469073401e-09</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>12989489760.49173</v>
+        <v>661.1516927946648</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.171717469073401e-09</v>
+        <v>0.0001418826482730379</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>661.1516927946648</v>
+        <v>8.573347348933709</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001418826482730379</v>
+        <v>1.431231068585987</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.573347348933709</v>
+        <v>0.01042869881664366</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.431231068585987</v>
+        <v>3.641798766126194</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01042869881664366</v>
+        <v>0.9585845843899333</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.641798766126194</v>
+        <v>1.083938954418795</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9585845843899333</v>
+        <v>94</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.083938954418795</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>1.433449645184929</v>
       </c>
     </row>
@@ -8126,72 +7934,66 @@
         <v>3.790603311324336e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.2476359800445277</v>
+        <v>1.201332856279241e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.355705124378644</v>
+        <v>9.153648150849031e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.201332856279241e-07</v>
+        <v>-0.05281936886534495</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>9.153648150849031e-07</v>
+        <v>0.01939238156851992</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05281936886534495</v>
+        <v>0.003165924710774238</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.01939238156851992</v>
+        <v>1.906283249597597</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.003165924710774238</v>
+        <v>2.724646882545534</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.941052221679311</v>
+        <v>5.062414089044879</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.724646882545534</v>
+        <v>4.359001778434014e-18</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>5.062414089044879</v>
+        <v>12287884659.1109</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>4.359001778434014e-18</v>
+        <v>9.730566332395837e-09</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>12287884659.1109</v>
+        <v>658.1748733849805</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>9.730566332395837e-09</v>
+        <v>0.0001316944178439947</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>658.1748733849805</v>
+        <v>9.576690300860847</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001316944178439947</v>
+        <v>1.202803043069119</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.576690300860847</v>
+        <v>0.01207808976426229</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.202803043069119</v>
+        <v>3.576259811687688</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01207808976426229</v>
+        <v>0.9602359012113368</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.576259811687688</v>
+        <v>1.112393480217382</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9602359012113368</v>
+        <v>94</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.112393480217382</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>1.333122033828471</v>
       </c>
     </row>
@@ -8568,7 +8370,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.47739428619043</v>
+        <v>1.500145499548283</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.685083372916956</v>
@@ -8657,7 +8459,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.508713022525871</v>
+        <v>1.53742404035062</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.663631875818502</v>
@@ -8746,7 +8548,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.519778624462308</v>
+        <v>1.551044633314097</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.686880486457925</v>
@@ -8835,7 +8637,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.528335300869797</v>
+        <v>1.56355581449279</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.639299426439748</v>
@@ -8924,7 +8726,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.528324037594832</v>
+        <v>1.560294541481832</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.451028394649797</v>
@@ -9013,7 +8815,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.537733045265731</v>
+        <v>1.576817426694136</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.484488410843936</v>
@@ -9102,7 +8904,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.555805678260912</v>
+        <v>1.595165141537353</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.337827190226469</v>
@@ -9191,7 +8993,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.552990988346352</v>
+        <v>1.592585010517528</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.606833553738405</v>
@@ -9280,7 +9082,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.585315567360789</v>
+        <v>1.635935531859805</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.516541551972839</v>
@@ -9369,7 +9171,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.578936396176528</v>
+        <v>1.633437071830387</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.436969177785377</v>
@@ -9458,7 +9260,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.595580221968753</v>
+        <v>1.653069281395751</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.829255229229466</v>
@@ -9547,7 +9349,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.597767004525067</v>
+        <v>1.661652135192238</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.724655539800232</v>
@@ -9636,7 +9438,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.604850936541117</v>
+        <v>1.667512349307782</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.716667471159615</v>
@@ -9725,7 +9527,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.586905121694562</v>
+        <v>1.646212710006212</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.747557604449382</v>
@@ -9814,7 +9616,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.605791695101281</v>
+        <v>1.671025509324343</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.654001750013637</v>
@@ -9903,7 +9705,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.636559836645204</v>
+        <v>1.700206363187292</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.578075646552559</v>
@@ -9992,7 +9794,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.611452497839356</v>
+        <v>1.674632155855118</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.680737361790854</v>
@@ -10081,7 +9883,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.616870145831334</v>
+        <v>1.670353743158287</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.545766244691044</v>
@@ -10170,7 +9972,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.604156552551558</v>
+        <v>1.656319615211933</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.819328715177058</v>
@@ -10259,7 +10061,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.58156936067695</v>
+        <v>1.634197163161455</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.711612353460625</v>
@@ -10348,7 +10150,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.600051452302235</v>
+        <v>1.65179415678652</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.603898473394365</v>
@@ -10437,7 +10239,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.616512988998896</v>
+        <v>1.662240542597125</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.600783781900144</v>
@@ -10526,7 +10328,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.631440839627891</v>
+        <v>1.675642535272949</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.488117278299858</v>
@@ -10615,7 +10417,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.612604855770543</v>
+        <v>1.655985002691353</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.875246803029925</v>
@@ -10704,7 +10506,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.643922392398766</v>
+        <v>1.683913010063659</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.056598730469983</v>
@@ -10793,7 +10595,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.634252255311354</v>
+        <v>1.673071568888341</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.522413643687271</v>
@@ -10882,7 +10684,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.646939743681209</v>
+        <v>1.685820550009744</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.890831496778006</v>
@@ -10971,7 +10773,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.644592034100499</v>
+        <v>1.67933484330902</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.942811152578617</v>
@@ -11060,7 +10862,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.67348331499223</v>
+        <v>1.714409057818981</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.709161564031198</v>
@@ -11149,7 +10951,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.675910269351778</v>
+        <v>1.715569447904938</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.087209801782678</v>
@@ -11238,7 +11040,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.658021540048836</v>
+        <v>1.696819687069599</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.876193506973734</v>
@@ -11327,7 +11129,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.684685740601655</v>
+        <v>1.722904974243848</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.916703929155004</v>
@@ -11416,7 +11218,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.719349399503651</v>
+        <v>1.75607319420188</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.952698506996765</v>
@@ -11505,7 +11307,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.729487687067941</v>
+        <v>1.763235657465123</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.549637105683382</v>
@@ -11594,7 +11396,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.730252635447611</v>
+        <v>1.771077293365136</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.950213131561791</v>
@@ -11683,7 +11485,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.716415532648609</v>
+        <v>1.759900867641597</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.941083257156585</v>
@@ -11772,7 +11574,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.739318480873377</v>
+        <v>1.783344388109653</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.64502025002783</v>
@@ -11861,7 +11663,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.727805199903154</v>
+        <v>1.770933693469064</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.751696543919767</v>
@@ -11950,7 +11752,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.759958559746826</v>
+        <v>1.803718314636011</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.805413149188472</v>
@@ -12039,7 +11841,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.751017191528449</v>
+        <v>1.797062806312935</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.970159289272516</v>
@@ -12128,7 +11930,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.777078151845725</v>
+        <v>1.819783813083198</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.017881978313683</v>
@@ -12217,7 +12019,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.740116096695947</v>
+        <v>1.784463778428304</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.258574384838785</v>
@@ -12306,7 +12108,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.73592671872993</v>
+        <v>1.780582282058823</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.299782946986236</v>
@@ -12395,7 +12197,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.709424052013226</v>
+        <v>1.755879887884376</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.071321100669286</v>
@@ -12484,7 +12286,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.708206708334956</v>
+        <v>1.756068339161792</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.93353653897861</v>
@@ -12573,7 +12375,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.695680238300493</v>
+        <v>1.743612902157808</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.525625643791996</v>
@@ -12662,7 +12464,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.660831454345012</v>
+        <v>1.709432988822583</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.955033039994388</v>
@@ -12751,7 +12553,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.658076450067097</v>
+        <v>1.706283429526946</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.684538232799366</v>
@@ -12840,7 +12642,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.660632583606752</v>
+        <v>1.708392164824073</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.493076583763044</v>
@@ -12929,7 +12731,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.67680940723994</v>
+        <v>1.727274848822618</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.542940013424153</v>
@@ -13018,7 +12820,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.676561605679152</v>
+        <v>1.725526303617739</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.698919804363419</v>
@@ -13107,7 +12909,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.672700032577241</v>
+        <v>1.721066612572461</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.635188071140065</v>
@@ -13196,7 +12998,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.685160275879706</v>
+        <v>1.735551213814313</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.735234784995247</v>
@@ -13285,7 +13087,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.679280393621345</v>
+        <v>1.723228618427212</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.76557124266371</v>
@@ -13374,7 +13176,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.67077021702615</v>
+        <v>1.709928011082398</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.579922372311775</v>
@@ -13463,7 +13265,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.652314456330613</v>
+        <v>1.688571594646035</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.748537214232529</v>
@@ -13552,7 +13354,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.690080042562377</v>
+        <v>1.721132238334079</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.542092394424592</v>
@@ -13641,7 +13443,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.696909643965926</v>
+        <v>1.72984560044176</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.642126017406371</v>
@@ -13730,7 +13532,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.725607497106434</v>
+        <v>1.759412739778311</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.666089704194233</v>
@@ -13819,7 +13621,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.729585347779916</v>
+        <v>1.761789011974355</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.609210378644922</v>
@@ -13908,7 +13710,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.737762483175275</v>
+        <v>1.765191898090358</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.665216932486452</v>
@@ -13997,7 +13799,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.78560064358899</v>
+        <v>1.809439389697896</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.562235920767925</v>
@@ -14086,7 +13888,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.781710992658598</v>
+        <v>1.802421783228501</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.753850998105066</v>
@@ -14175,7 +13977,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.803736309261494</v>
+        <v>1.824859476545241</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.765807010951842</v>
@@ -14264,7 +14066,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.763596675233079</v>
+        <v>1.78440701379003</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.726969087772402</v>
@@ -14353,7 +14155,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.781033898742619</v>
+        <v>1.800584386330423</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.851825769120947</v>
@@ -14442,7 +14244,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.779585861848445</v>
+        <v>1.796130526923762</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.898305182352468</v>
@@ -14531,7 +14333,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.765801880792907</v>
+        <v>1.779173182906164</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.797773658958765</v>
@@ -14620,7 +14422,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.729299277867353</v>
+        <v>1.748309008247944</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.839888688520673</v>
@@ -14709,7 +14511,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.73942003065459</v>
+        <v>1.757296603730234</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.570279965509464</v>
@@ -14798,7 +14600,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.751726652866509</v>
+        <v>1.771819171743306</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.616765843134385</v>
@@ -14887,7 +14689,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.731614075687874</v>
+        <v>1.756348911031578</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.825177220369647</v>
@@ -14976,7 +14778,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.741115928854898</v>
+        <v>1.759104797441026</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.74652148065803</v>
@@ -15065,7 +14867,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.734702877138468</v>
+        <v>1.75248884451685</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.692282986034022</v>
@@ -15154,7 +14956,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.675146396122469</v>
+        <v>1.695895732630959</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.703904603025788</v>
@@ -15243,7 +15045,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.689068662977602</v>
+        <v>1.71154011839581</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.621311399436288</v>
@@ -15529,7 +15331,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.656772412620989</v>
+        <v>1.675800944642924</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.528203804985769</v>
@@ -15618,7 +15420,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.660371004474022</v>
+        <v>1.682428873594713</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.46258398147316</v>
@@ -15707,7 +15509,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.694322317694638</v>
+        <v>1.711184802378791</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.435159565168084</v>
@@ -15796,7 +15598,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.693505049158561</v>
+        <v>1.713060740312278</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.192077040794396</v>
@@ -15885,7 +15687,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.702402952148014</v>
+        <v>1.708842817600002</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.641150592120158</v>
@@ -15974,7 +15776,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.715109001687266</v>
+        <v>1.710862055233769</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.488166409928716</v>
@@ -16063,7 +15865,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.729318261895018</v>
+        <v>1.718795185788365</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.826647203224926</v>
@@ -16152,7 +15954,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.717740023852353</v>
+        <v>1.714938605206496</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.101086682058478</v>
@@ -16241,7 +16043,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.73693987450188</v>
+        <v>1.739915520717775</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.083956345333782</v>
@@ -16330,7 +16132,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.719703701020938</v>
+        <v>1.724196642044018</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.125496807539625</v>
@@ -16419,7 +16221,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.722378252988013</v>
+        <v>1.728296602372561</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.657540821878901</v>
@@ -16508,7 +16310,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.718380159110038</v>
+        <v>1.724483039331544</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.009847041630236</v>
@@ -16597,7 +16399,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.71736577629061</v>
+        <v>1.721047717875696</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.188433635906845</v>
@@ -16686,7 +16488,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.70379010385673</v>
+        <v>1.709154236970321</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.046426969346879</v>
@@ -16775,7 +16577,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.716709966108744</v>
+        <v>1.721424703204639</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.16679396457398</v>
@@ -16864,7 +16666,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.721381149483834</v>
+        <v>1.72556649908206</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.867604702136716</v>
@@ -16953,7 +16755,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.710245557879998</v>
+        <v>1.710770791285043</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.032622390521374</v>
@@ -17042,7 +16844,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.689089527316745</v>
+        <v>1.695828507978719</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.149054054347934</v>
@@ -17131,7 +16933,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.69016101119535</v>
+        <v>1.689917231110468</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.953883049862262</v>
@@ -17220,7 +17022,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.656217839037754</v>
+        <v>1.665588249210775</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.830141667622287</v>
@@ -17309,7 +17111,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.661332279205593</v>
+        <v>1.670638095786649</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.687708413835658</v>
@@ -17398,7 +17200,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.675946263342109</v>
+        <v>1.677696323264823</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.476395597069857</v>
@@ -17487,7 +17289,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.694080901818734</v>
+        <v>1.69042529483591</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.983321351275674</v>
@@ -17576,7 +17378,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.697072092657997</v>
+        <v>1.692190792834841</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.891056261303616</v>
@@ -17665,7 +17467,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.71143864735152</v>
+        <v>1.704723937562479</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.891110755971205</v>
@@ -17754,7 +17556,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.706148717700954</v>
+        <v>1.698033087447925</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.648555356676833</v>
@@ -17843,7 +17645,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.707228904530186</v>
+        <v>1.701300919878982</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.837156581243015</v>
@@ -17932,7 +17734,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.704124367189273</v>
+        <v>1.697989910145149</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.918415525594546</v>
@@ -18021,7 +17823,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.71000332731238</v>
+        <v>1.70320950502218</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.791857058864833</v>
@@ -18110,7 +17912,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.698495406744619</v>
+        <v>1.693438054397842</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.894899404088838</v>
@@ -18199,7 +18001,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.685266600527443</v>
+        <v>1.681723653240907</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.714987621158045</v>
@@ -18288,7 +18090,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.691897630944923</v>
+        <v>1.687014410863864</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.493702227709183</v>
@@ -18377,7 +18179,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.704647032125442</v>
+        <v>1.694344462266981</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.702016869356632</v>
@@ -18466,7 +18268,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.702471917258157</v>
+        <v>1.68935153272101</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.296183703796561</v>
@@ -18555,7 +18357,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.719067786956681</v>
+        <v>1.696679451349675</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.345718099668575</v>
@@ -18644,7 +18446,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.713868177558976</v>
+        <v>1.692284743548366</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.393218884820396</v>
@@ -18733,7 +18535,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.700641818365535</v>
+        <v>1.682518462963875</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.910592286380209</v>
@@ -18822,7 +18624,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.6886572401499</v>
+        <v>1.668726048501631</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.134450851093865</v>
@@ -18911,7 +18713,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.681631471997126</v>
+        <v>1.664096035377404</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.070289090297456</v>
@@ -19000,7 +18802,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.677607589157161</v>
+        <v>1.664078275615508</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.017754641535698</v>
@@ -19089,7 +18891,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.683832438863217</v>
+        <v>1.672700311069054</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.749166977964495</v>
@@ -19178,7 +18980,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.668425306536575</v>
+        <v>1.65980335424183</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.083613638406399</v>
@@ -19267,7 +19069,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.67149376823855</v>
+        <v>1.665782457765346</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.213693229080393</v>
@@ -19356,7 +19158,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.67685762127407</v>
+        <v>1.666966293705579</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.20312917493153</v>
@@ -19445,7 +19247,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.680512455657694</v>
+        <v>1.669884228803536</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.155657692122703</v>
@@ -19534,7 +19336,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.673818973664861</v>
+        <v>1.661903547856333</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.215374133221401</v>
@@ -19623,7 +19425,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.646604071236007</v>
+        <v>1.640797044297684</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.830828456608723</v>
@@ -19712,7 +19514,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.65459160360718</v>
+        <v>1.650863209995945</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.944618310569601</v>
@@ -19801,7 +19603,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.662454741417062</v>
+        <v>1.662163877655347</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.868696588664814</v>
@@ -19890,7 +19692,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.661835914889515</v>
+        <v>1.665484991205926</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.909190277890617</v>
@@ -19979,7 +19781,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.654234560358317</v>
+        <v>1.661119762103829</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.767239679290368</v>
@@ -20068,7 +19870,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.666828637802284</v>
+        <v>1.677390542045278</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.805556710130751</v>
@@ -20157,7 +19959,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.668682585814261</v>
+        <v>1.684332478249741</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.898456181699796</v>
@@ -20246,7 +20048,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.666573459392011</v>
+        <v>1.680539206414661</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.74117842568681</v>
@@ -20335,7 +20137,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.65005386070086</v>
+        <v>1.658447052450993</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.791729941036093</v>
@@ -20424,7 +20226,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.627353337254912</v>
+        <v>1.637356345703827</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.764607051760378</v>
@@ -20513,7 +20315,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.635791449135095</v>
+        <v>1.645581802408425</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.83459141290326</v>
@@ -20602,7 +20404,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.624348519622657</v>
+        <v>1.631833266172403</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.880500519495317</v>
@@ -20691,7 +20493,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.624674187012085</v>
+        <v>1.63507224023404</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.748020259291081</v>
@@ -20780,7 +20582,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.616087517107888</v>
+        <v>1.624335870575865</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.736692257232485</v>
@@ -20869,7 +20671,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.619550061688837</v>
+        <v>1.631263502577433</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.752582275570269</v>
@@ -20958,7 +20760,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.643848851926628</v>
+        <v>1.651580836476112</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.920117932013416</v>
@@ -21047,7 +20849,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.641396540947162</v>
+        <v>1.644770891790951</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.833289881683087</v>
@@ -21136,7 +20938,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.643241427923291</v>
+        <v>1.64934373898621</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.886455068696936</v>
@@ -21225,7 +21027,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.661798146330349</v>
+        <v>1.665040250423616</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.834860730382639</v>
@@ -21314,7 +21116,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.678044760297742</v>
+        <v>1.671413648909787</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.75652221690237</v>
@@ -21403,7 +21205,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.67513399432978</v>
+        <v>1.665077482807322</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.912114114165244</v>
@@ -21492,7 +21294,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.68928823283924</v>
+        <v>1.678520800319053</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.88959234089136</v>
@@ -21581,7 +21383,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.680657375341532</v>
+        <v>1.668626992076381</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.966749465216902</v>
@@ -21670,7 +21472,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.688023794054402</v>
+        <v>1.6818070166826</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.641573743106249</v>
@@ -21759,7 +21561,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.705074635474925</v>
+        <v>1.6967369402799</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.190822549285702</v>
@@ -21848,7 +21650,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.686006085259323</v>
+        <v>1.680598990502393</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.173961620486687</v>
@@ -21937,7 +21739,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.68974972829565</v>
+        <v>1.676698556679319</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.820592637313101</v>
@@ -22026,7 +21828,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.665321315101851</v>
+        <v>1.664028154107766</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.776044430906856</v>
@@ -22115,7 +21917,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.619298426510832</v>
+        <v>1.624658909518562</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.572269073313397</v>
@@ -22204,7 +22006,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.625187392918152</v>
+        <v>1.627640590158966</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.449650306416187</v>
@@ -22490,7 +22292,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.800017288719292</v>
+        <v>1.794833642957306</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.774658791723115</v>
@@ -22579,7 +22381,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.805179414574357</v>
+        <v>1.800888140642303</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.794140318027913</v>
@@ -22668,7 +22470,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.831137720212186</v>
+        <v>1.825360334495491</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.748805645836196</v>
@@ -22757,7 +22559,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.851898752379835</v>
+        <v>1.837995741764541</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.382573587895404</v>
@@ -22846,7 +22648,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.859697420765285</v>
+        <v>1.844758327474518</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.101557476727782</v>
@@ -22935,7 +22737,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.876207998354933</v>
+        <v>1.859826034165198</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.576551239141748</v>
@@ -23024,7 +22826,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.891639623023713</v>
+        <v>1.88437481761873</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.04196900661247</v>
@@ -23113,7 +22915,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.88899265858036</v>
+        <v>1.882882428903188</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.982852367410071</v>
@@ -23202,7 +23004,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.898176351601486</v>
+        <v>1.90652038971163</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.895383832282224</v>
@@ -23291,7 +23093,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.899355187046464</v>
+        <v>1.909923814457217</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.948008074154348</v>
@@ -23380,7 +23182,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.900919549182357</v>
+        <v>1.922222568864244</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.025026415684799</v>
@@ -23469,7 +23271,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.901297132161936</v>
+        <v>1.923778177590435</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.141774061959398</v>
@@ -23558,7 +23360,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.900758494843903</v>
+        <v>1.91881010248191</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.968389153645584</v>
@@ -23647,7 +23449,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.891480362034518</v>
+        <v>1.9124505852133</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.662260532608406</v>
@@ -23736,7 +23538,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.89720313198718</v>
+        <v>1.926830533743967</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.834960440465691</v>
@@ -23825,7 +23627,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.897721957695206</v>
+        <v>1.917346920617875</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.083778719429406</v>
@@ -23914,7 +23716,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.894257909437129</v>
+        <v>1.91992819816658</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.219804880943056</v>
@@ -24003,7 +23805,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.885111485034011</v>
+        <v>1.908592585953896</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.133049455942214</v>
@@ -24092,7 +23894,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.885001718416074</v>
+        <v>1.896005002462661</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.900866999343631</v>
@@ -24181,7 +23983,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.878788670080892</v>
+        <v>1.884839616884251</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.770405680233692</v>
@@ -24270,7 +24072,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.881751291336812</v>
+        <v>1.887870588921054</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.807600783744506</v>
@@ -24359,7 +24161,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.882161546245361</v>
+        <v>1.88644373306943</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.287775460670822</v>
@@ -24448,7 +24250,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.897500075989624</v>
+        <v>1.90015249993579</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.545988684740339</v>
@@ -24537,7 +24339,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.893227936623966</v>
+        <v>1.894995099860824</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.902110945044675</v>
@@ -24626,7 +24428,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.901539414684421</v>
+        <v>1.897584638723962</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.030694178308845</v>
@@ -24715,7 +24517,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.900632220660125</v>
+        <v>1.89333728167116</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.603938893834252</v>
@@ -24804,7 +24606,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.903657054515856</v>
+        <v>1.900438834315407</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.435922622691249</v>
@@ -24893,7 +24695,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.905605637923901</v>
+        <v>1.905627126360996</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.531499174077162</v>
@@ -24982,7 +24784,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.910190985429599</v>
+        <v>1.9125671609544</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.771922235221115</v>
@@ -25071,7 +24873,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.910712550815784</v>
+        <v>1.91341931229753</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.10702591833306</v>
@@ -25160,7 +24962,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.911638423787406</v>
+        <v>1.920909117345853</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.807824584677252</v>
@@ -25249,7 +25051,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.920603225603871</v>
+        <v>1.925979921056334</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.861064020328864</v>
@@ -25338,7 +25140,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.932409314989084</v>
+        <v>1.939502225664293</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.295413690436041</v>
@@ -25427,7 +25229,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.937081440926779</v>
+        <v>1.953871786816254</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.839819811658818</v>
@@ -25516,7 +25318,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.937431812874586</v>
+        <v>1.957549710244562</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.48867034638779</v>
@@ -25605,7 +25407,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.939928794484978</v>
+        <v>1.956896357903274</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>5.47077857737195</v>
@@ -25694,7 +25496,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.938073538475407</v>
+        <v>1.96141862139182</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.831243877989192</v>
@@ -25783,7 +25585,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.937153264482964</v>
+        <v>1.961203391957646</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.986628550262642</v>
@@ -25872,7 +25674,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.948094393067829</v>
+        <v>1.973759393259219</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.793402237911655</v>
@@ -25961,7 +25763,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.943354319193597</v>
+        <v>1.975249991296914</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.562789759566711</v>
@@ -26050,7 +25852,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.947125958977501</v>
+        <v>1.977997247180144</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.698962302982034</v>
@@ -26139,7 +25941,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.947270554282681</v>
+        <v>1.979385918329192</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.841485524819185</v>
@@ -26228,7 +26030,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.948580146800839</v>
+        <v>1.979386069543937</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.544454091631034</v>
@@ -26317,7 +26119,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.946701552605089</v>
+        <v>1.975948076973087</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.79206496540561</v>
@@ -26406,7 +26208,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.944569523553404</v>
+        <v>1.976407740462666</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.34641666149358</v>
@@ -26495,7 +26297,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.938849620777986</v>
+        <v>1.969138418122008</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.092201446144316</v>
@@ -26584,7 +26386,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.936233199123865</v>
+        <v>1.962585524058122</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.600130797940045</v>
@@ -26673,7 +26475,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.932130706154467</v>
+        <v>1.960174152002217</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.069943271015533</v>
@@ -26762,7 +26564,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.930766863058733</v>
+        <v>1.957116225763698</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.203637841453937</v>
@@ -26851,7 +26653,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.933383419996135</v>
+        <v>1.964733936078377</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.454157825732882</v>
@@ -26940,7 +26742,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.929174704954834</v>
+        <v>1.962233258040073</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.919214661151225</v>
@@ -27029,7 +26831,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.930527165394202</v>
+        <v>1.960817373389349</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.874605387274078</v>
@@ -27118,7 +26920,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.923718679427809</v>
+        <v>1.951106481325434</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.813801872685106</v>
@@ -27207,7 +27009,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.922279497628411</v>
+        <v>1.940294831615895</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.930850057143069</v>
@@ -27296,7 +27098,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.919499681065092</v>
+        <v>1.937870213283581</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.126982282503521</v>
@@ -27385,7 +27187,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.912411050600499</v>
+        <v>1.92828516235391</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.278149123881712</v>
@@ -27474,7 +27276,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.914326749670465</v>
+        <v>1.925037933475501</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.549251571178276</v>
@@ -27563,7 +27365,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.907733325492877</v>
+        <v>1.922425021504183</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.258053416410263</v>
@@ -27652,7 +27454,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.908659389960243</v>
+        <v>1.929096972087956</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.486944702100694</v>
@@ -27741,7 +27543,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.911930237643386</v>
+        <v>1.931152951782693</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.451399956888084</v>
@@ -27830,7 +27632,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.91191785314678</v>
+        <v>1.923352143805875</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.278388627938862</v>
@@ -27919,7 +27721,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.915099209105668</v>
+        <v>1.931855143432268</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.916448376790335</v>
@@ -28008,7 +27810,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.912477979855226</v>
+        <v>1.919603324930264</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.621020683111517</v>
@@ -28097,7 +27899,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.918845421789859</v>
+        <v>1.927525835281461</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.946770369422479</v>
@@ -28186,7 +27988,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.916321967440641</v>
+        <v>1.922595875567281</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.779910101390403</v>
@@ -28275,7 +28077,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.918214330123071</v>
+        <v>1.924405728168994</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.407870523032837</v>
@@ -28364,7 +28166,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.919602774714954</v>
+        <v>1.922983378908832</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.461907562383883</v>
@@ -28453,7 +28255,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.924040270629007</v>
+        <v>1.923655147889755</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.223591765119877</v>
@@ -28542,7 +28344,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.915708938499283</v>
+        <v>1.918687442961969</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.363653369175933</v>
@@ -28631,7 +28433,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.915253533113794</v>
+        <v>1.91665188457429</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.714639729204019</v>
@@ -28720,7 +28522,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.919940507813185</v>
+        <v>1.918177094992195</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.907220379108422</v>
@@ -28809,7 +28611,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.907782955234079</v>
+        <v>1.908667034688892</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.372901527872431</v>
@@ -28898,7 +28700,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.91581601956442</v>
+        <v>1.908412393497155</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.7699969874832</v>
@@ -28987,7 +28789,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.897546416733324</v>
+        <v>1.890467102591107</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.882281398580369</v>
@@ -29076,7 +28878,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.876027818833467</v>
+        <v>1.868779700933773</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.529834322407549</v>
@@ -29165,7 +28967,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.880588853885468</v>
+        <v>1.87749766501179</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.595176097420845</v>
@@ -29451,7 +29253,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.544636807498291</v>
+        <v>1.564488220607262</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.615829221119863</v>
@@ -29540,7 +29342,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.563063698343495</v>
+        <v>1.582145624490541</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.714820891664259</v>
@@ -29629,7 +29431,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.600524247174129</v>
+        <v>1.618506268271741</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.741095170174346</v>
@@ -29718,7 +29520,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.610071252225236</v>
+        <v>1.629220054095523</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.440913710400693</v>
@@ -29807,7 +29609,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.607434498264403</v>
+        <v>1.625872538001812</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.861540496293155</v>
@@ -29896,7 +29698,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.619047945434646</v>
+        <v>1.638093739975968</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.431591037988729</v>
@@ -29985,7 +29787,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.619411364335637</v>
+        <v>1.636246872538489</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.743110590833159</v>
@@ -30074,7 +29876,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.625422027855708</v>
+        <v>1.644274115330215</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.069888518912056</v>
@@ -30163,7 +29965,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.647427787155906</v>
+        <v>1.667176309479064</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.20157445628913</v>
@@ -30252,7 +30054,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.633206794738992</v>
+        <v>1.659510183617952</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.668220677348658</v>
@@ -30341,7 +30143,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.599514716141063</v>
+        <v>1.636117714829612</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.602837049256119</v>
@@ -30430,7 +30232,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.602083491775903</v>
+        <v>1.640994877329456</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.699368875674149</v>
@@ -30519,7 +30321,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.621311230471546</v>
+        <v>1.66008319005575</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.527960547018763</v>
@@ -30608,7 +30410,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622795319018755</v>
+        <v>1.658376751630861</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.669203490576419</v>
@@ -30697,7 +30499,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.630091362462956</v>
+        <v>1.666221940357992</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.698716827465427</v>
@@ -30786,7 +30588,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.645660978303053</v>
+        <v>1.681455091484135</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.485311888227452</v>
@@ -30875,7 +30677,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.634941039228491</v>
+        <v>1.671638101614705</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.703497414346209</v>
@@ -30964,7 +30766,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.638377960921321</v>
+        <v>1.676638527223459</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.605052181326377</v>
@@ -31053,7 +30855,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.639371571476022</v>
+        <v>1.674179482248065</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.711904095003968</v>
@@ -31142,7 +30944,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.631554786732738</v>
+        <v>1.664826024114772</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.639474500042218</v>
@@ -31231,7 +31033,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.651737811659119</v>
+        <v>1.685199868730223</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.800250498036983</v>
@@ -31320,7 +31122,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.670765128162045</v>
+        <v>1.702668652282558</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.64093998946051</v>
@@ -31409,7 +31211,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.668831948294362</v>
+        <v>1.701194981676666</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.716477090427881</v>
@@ -31498,7 +31300,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.652012496491889</v>
+        <v>1.687926963601638</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.626023985119927</v>
@@ -31587,7 +31389,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.662495593883439</v>
+        <v>1.693913053686194</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.525441575932433</v>
@@ -31676,7 +31478,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.704012973860652</v>
+        <v>1.72863488198415</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.015983835719751</v>
@@ -31765,7 +31567,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.711812242750846</v>
+        <v>1.734105619470569</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.199588273388506</v>
@@ -31854,7 +31656,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.704366620326463</v>
+        <v>1.724325240322817</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.224542187986051</v>
@@ -31943,7 +31745,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.708418597398058</v>
+        <v>1.736389401645808</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.28107751905471</v>
@@ -32032,7 +31834,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.703761139646451</v>
+        <v>1.734144408663824</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.317972024298863</v>
@@ -32121,7 +31923,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.700201640593556</v>
+        <v>1.727406454925862</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.37461243677275</v>
@@ -32210,7 +32012,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.724618771910434</v>
+        <v>1.745899581428597</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.690841180053709</v>
@@ -32299,7 +32101,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.731763057689395</v>
+        <v>1.75138443403655</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.150755029397796</v>
@@ -32388,7 +32190,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.721384744166135</v>
+        <v>1.7456920503027</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.269321014774966</v>
@@ -32477,7 +32279,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.715640990622931</v>
+        <v>1.744051735272563</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.914660801153632</v>
@@ -32566,7 +32368,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.708307266070357</v>
+        <v>1.736821910771416</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.079655344069772</v>
@@ -32655,7 +32457,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.704774984070822</v>
+        <v>1.734374980469653</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.875307281282579</v>
@@ -32744,7 +32546,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.70506248170723</v>
+        <v>1.733867346014254</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.686775381631507</v>
@@ -32833,7 +32635,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.725720836140676</v>
+        <v>1.747725164205518</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.190280413685115</v>
@@ -32922,7 +32724,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.720125268187699</v>
+        <v>1.742825606636664</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.883458265906434</v>
@@ -33011,7 +32813,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.729458583746871</v>
+        <v>1.749567972919509</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.064390104039432</v>
@@ -33100,7 +32902,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.712544765017532</v>
+        <v>1.736052595073777</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.253922756860963</v>
@@ -33189,7 +32991,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.715549838529118</v>
+        <v>1.740435576294279</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.139002151846475</v>
@@ -33278,7 +33080,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.677291190020054</v>
+        <v>1.699546552808465</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.625484384047034</v>
@@ -33367,7 +33169,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.671648242160207</v>
+        <v>1.698905676285517</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.645347689611183</v>
@@ -33456,7 +33258,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.676012811003086</v>
+        <v>1.707047483748833</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.655886961337241</v>
@@ -33545,7 +33347,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.653021146010164</v>
+        <v>1.684805807899338</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.6493525638865</v>
@@ -33634,7 +33436,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.657158650186565</v>
+        <v>1.690554278447384</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.665154259122422</v>
@@ -33723,7 +33525,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.665977868108121</v>
+        <v>1.703860880049678</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.406998104753569</v>
@@ -33812,7 +33614,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.682884566594026</v>
+        <v>1.716405079500133</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.596818713622735</v>
@@ -33901,7 +33703,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.671174659179001</v>
+        <v>1.705863809822727</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.536506333853071</v>
@@ -33990,7 +33792,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.675629832282878</v>
+        <v>1.707054599652242</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.519295473959111</v>
@@ -34079,7 +33881,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.675879499039852</v>
+        <v>1.706633725663591</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.620199822144126</v>
@@ -34168,7 +33970,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.683169647838463</v>
+        <v>1.709631319159207</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.541044517824068</v>
@@ -34257,7 +34059,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.69067620537263</v>
+        <v>1.715957022263106</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.542130762117517</v>
@@ -34346,7 +34148,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.686510197198215</v>
+        <v>1.707811464041763</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.63914997642193</v>
@@ -34435,7 +34237,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.705614390582662</v>
+        <v>1.723089712574701</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.561987958748617</v>
@@ -34524,7 +34326,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.705193764945992</v>
+        <v>1.720325664502722</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.618374962185118</v>
@@ -34613,7 +34415,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.727240943277576</v>
+        <v>1.742480814522442</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.903605356687165</v>
@@ -34702,7 +34504,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.714084501331875</v>
+        <v>1.725295320466161</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.858606641730147</v>
@@ -34791,7 +34593,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.710272499186716</v>
+        <v>1.720780460397646</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.932082987131553</v>
@@ -34880,7 +34682,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.740949479230641</v>
+        <v>1.746012495796516</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.927538164423324</v>
@@ -34969,7 +34771,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.731120909411859</v>
+        <v>1.73309955506239</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.906369109250579</v>
@@ -35058,7 +34860,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.725396452410309</v>
+        <v>1.72964103652803</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.813208442781487</v>
@@ -35147,7 +34949,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.703704465052307</v>
+        <v>1.710411335515932</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.820371143893129</v>
@@ -35236,7 +35038,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.709922751243599</v>
+        <v>1.718053999376832</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.948745099699416</v>
@@ -35325,7 +35127,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.716695155351324</v>
+        <v>1.726585777505442</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.73584425444884</v>
@@ -35414,7 +35216,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.715021784691917</v>
+        <v>1.723506250881605</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.961488064885681</v>
@@ -35503,7 +35305,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.707517179851787</v>
+        <v>1.718898669234926</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.948331087724369</v>
@@ -35592,7 +35394,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.706547525706647</v>
+        <v>1.718543161930584</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.912176481385792</v>
@@ -35681,7 +35483,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.710655550349202</v>
+        <v>1.724362696198724</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.952163563903733</v>
@@ -35770,7 +35572,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.703739621491625</v>
+        <v>1.719944386405813</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.824728714252276</v>
@@ -35859,7 +35661,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.708596124059953</v>
+        <v>1.724820220559971</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.846936197384327</v>
@@ -35948,7 +35750,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.744225228105138</v>
+        <v>1.75348891710968</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.641853808645882</v>
@@ -36037,7 +35839,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.735492127020432</v>
+        <v>1.75061221497671</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.415914536893129</v>
@@ -36126,7 +35928,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.74722518036157</v>
+        <v>1.761350756055356</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.687441205083802</v>
@@ -36412,7 +36214,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.244409485657032</v>
+        <v>1.237771153784114</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.225157128114982</v>
@@ -36501,7 +36303,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.257786600337631</v>
+        <v>1.254960316446709</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.184470864297065</v>
@@ -36590,7 +36392,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.264634438955059</v>
+        <v>1.26027264216816</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.180943259639888</v>
@@ -36679,7 +36481,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.271231736097985</v>
+        <v>1.268547000513623</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.211335052741537</v>
@@ -36768,7 +36570,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.245350382406662</v>
+        <v>1.237613938780055</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.013003557864986</v>
@@ -36857,7 +36659,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.238060276368503</v>
+        <v>1.230150731798686</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.154875331858916</v>
@@ -36946,7 +36748,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.236314420422845</v>
+        <v>1.225561248770626</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.956447216058614</v>
@@ -37035,7 +36837,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.220510612340487</v>
+        <v>1.212786045067429</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.01223831225397</v>
@@ -37124,7 +36926,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.24454544880297</v>
+        <v>1.242777204969951</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.978806803284638</v>
@@ -37213,7 +37015,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.236101986762384</v>
+        <v>1.234293129051173</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.013739148047967</v>
@@ -37302,7 +37104,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.235166025066919</v>
+        <v>1.234137652517524</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.156846412067414</v>
@@ -37391,7 +37193,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.23102486692248</v>
+        <v>1.230709323400464</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.188684529164018</v>
@@ -37480,7 +37282,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.229052310702159</v>
+        <v>1.226964364817617</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.137653879503241</v>
@@ -37569,7 +37371,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.223065476664176</v>
+        <v>1.218175869741186</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.154423598507289</v>
@@ -37658,7 +37460,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.231408075981109</v>
+        <v>1.231939525554474</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.119650896156274</v>
@@ -37747,7 +37549,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.253321131859749</v>
+        <v>1.256073256619668</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.984034353489303</v>
@@ -37836,7 +37638,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.226864350205616</v>
+        <v>1.229003221043282</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.159061106182175</v>
@@ -37925,7 +37727,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.249217041871196</v>
+        <v>1.248445002252906</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.027129693247567</v>
@@ -38014,7 +37816,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.237345357506645</v>
+        <v>1.238750207916476</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.158794781599066</v>
@@ -38103,7 +37905,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.225464899448746</v>
+        <v>1.22881705039217</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.072878312526331</v>
@@ -38192,7 +37994,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.232797786422583</v>
+        <v>1.239264989050186</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.973893857993648</v>
@@ -38281,7 +38083,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.265479518323761</v>
+        <v>1.270538489197249</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.871646448968658</v>
@@ -38370,7 +38172,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.264316339651868</v>
+        <v>1.269970385510927</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.928364804343934</v>
@@ -38459,7 +38261,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.256778202182649</v>
+        <v>1.259268102015791</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.039686909587305</v>
@@ -38548,7 +38350,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.284704244991418</v>
+        <v>1.287064557699186</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.044706246173896</v>
@@ -38637,7 +38439,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.287436013331462</v>
+        <v>1.287996912692782</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.852197848482014</v>
@@ -38726,7 +38528,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.294286126140754</v>
+        <v>1.296477773842294</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.944698726093899</v>
@@ -38815,7 +38617,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.293687353727169</v>
+        <v>1.290166384257321</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.005770276999856</v>
@@ -38904,7 +38706,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.29282568250239</v>
+        <v>1.300300078165903</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.918157800273476</v>
@@ -38993,7 +38795,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.272936782989804</v>
+        <v>1.279265710606257</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.967438334854611</v>
@@ -39082,7 +38884,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.269578480169846</v>
+        <v>1.273467396283454</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.780573073496673</v>
@@ -39171,7 +38973,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.287030931386792</v>
+        <v>1.285422081861416</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.920265110120512</v>
@@ -39260,7 +39062,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.299051169758354</v>
+        <v>1.300989044315563</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.002131046226254</v>
@@ -39349,7 +39151,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.305714588613287</v>
+        <v>1.303707067390278</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.959686979541077</v>
@@ -39438,7 +39240,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.314057757204274</v>
+        <v>1.313921207725105</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.010136347779745</v>
@@ -39527,7 +39329,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.304425308406291</v>
+        <v>1.302425948015686</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.061533461853611</v>
@@ -39616,7 +39418,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.318072870302013</v>
+        <v>1.31511839978898</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.800881009360582</v>
@@ -39705,7 +39507,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.311788973026365</v>
+        <v>1.312923691459424</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.016951923941347</v>
@@ -39794,7 +39596,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.326613459818588</v>
+        <v>1.330397203348447</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.118415273679552</v>
@@ -39883,7 +39685,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.317021502553852</v>
+        <v>1.318060293095238</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.124019317552977</v>
@@ -39972,7 +39774,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.314173878384885</v>
+        <v>1.314961521319476</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.065075157167144</v>
@@ -40061,7 +39863,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.283694343199817</v>
+        <v>1.282393956903917</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.156748246552819</v>
@@ -40150,7 +39952,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.290047198631548</v>
+        <v>1.288143474048984</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.206054565545867</v>
@@ -40239,7 +40041,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.28648277786082</v>
+        <v>1.285893647380741</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.992173821973072</v>
@@ -40328,7 +40130,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.297664815859481</v>
+        <v>1.295648377895599</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.105871327931391</v>
@@ -40417,7 +40219,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.297999079237856</v>
+        <v>1.296278682462958</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.08399333535529</v>
@@ -40506,7 +40308,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.28391394612266</v>
+        <v>1.280249188744898</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.070415084644817</v>
@@ -40595,7 +40397,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.282331685420581</v>
+        <v>1.278899802879508</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.083518433467028</v>
@@ -40684,7 +40486,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.282915865093184</v>
+        <v>1.281108333672761</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.908687565891249</v>
@@ -40773,7 +40575,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.285763896563897</v>
+        <v>1.285136782874073</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.98250024853716</v>
@@ -40862,7 +40664,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.298243221986996</v>
+        <v>1.296778441588549</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.015164182769635</v>
@@ -40951,7 +40753,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.298809896296534</v>
+        <v>1.296911417521145</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.038782934991474</v>
@@ -41040,7 +40842,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.278483318498344</v>
+        <v>1.27211507688279</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.813945085349963</v>
@@ -41129,7 +40931,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.279964194656819</v>
+        <v>1.274716706760483</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.806928344342881</v>
@@ -41218,7 +41020,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.277253178551293</v>
+        <v>1.271589285014172</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.795782085216276</v>
@@ -41307,7 +41109,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.277005729439829</v>
+        <v>1.270413250561484</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.838142193573186</v>
@@ -41396,7 +41198,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.315504160732978</v>
+        <v>1.31206053513965</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.834911262031014</v>
@@ -41485,7 +41287,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.311142824581995</v>
+        <v>1.307556501731</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.821600050714265</v>
@@ -41574,7 +41376,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.31992918257703</v>
+        <v>1.317654624289424</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.796146956008463</v>
@@ -41663,7 +41465,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.31856132637223</v>
+        <v>1.317831739326384</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.811164127678313</v>
@@ -41752,7 +41554,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.309756795119828</v>
+        <v>1.308756037116081</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.789425704936358</v>
@@ -41841,7 +41643,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.344091429919649</v>
+        <v>1.350624624129029</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.77069746180455</v>
@@ -41930,7 +41732,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.344854719906848</v>
+        <v>1.348466217580752</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.779987965369102</v>
@@ -42019,7 +41821,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.356706474612716</v>
+        <v>1.360542694495205</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.757657624578496</v>
@@ -42108,7 +41910,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.3345538854457</v>
+        <v>1.334543388249794</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.817846490783949</v>
@@ -42197,7 +41999,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.332022594976883</v>
+        <v>1.338383350865335</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.782655271244723</v>
@@ -42286,7 +42088,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.344417400779135</v>
+        <v>1.34712606904205</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.755001690195329</v>
@@ -42375,7 +42177,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.370091001901765</v>
+        <v>1.378715117711863</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.024687098999362</v>
@@ -42464,7 +42266,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.341439859746531</v>
+        <v>1.345967939345053</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.116716144431915</v>
@@ -42553,7 +42355,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.340469476966573</v>
+        <v>1.348102523570024</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.065349097010876</v>
@@ -42642,7 +42444,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.357250342027992</v>
+        <v>1.366877620716288</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.036511939352781</v>
@@ -42731,7 +42533,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.345923303920048</v>
+        <v>1.354291626000325</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.894996448151184</v>
@@ -42820,7 +42622,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.358056490533039</v>
+        <v>1.363308505455785</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.061548401953772</v>
@@ -42909,7 +42711,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.352973020852039</v>
+        <v>1.358875421363208</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.128718046512545</v>
@@ -42998,7 +42800,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.326635627250928</v>
+        <v>1.329162833289351</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.068704068086096</v>
@@ -43087,7 +42889,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.341176634549492</v>
+        <v>1.346326893989256</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.132156321265891</v>
@@ -43373,7 +43175,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.451644537708944</v>
+        <v>1.477299470409911</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.560161963869993</v>
@@ -43462,7 +43264,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.487695284130261</v>
+        <v>1.51821164333483</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.532671039030838</v>
@@ -43551,7 +43353,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.508499842619157</v>
+        <v>1.54048788033287</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.493910034295592</v>
@@ -43640,7 +43442,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.522842762652062</v>
+        <v>1.555487991268482</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.162914591330415</v>
@@ -43729,7 +43531,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.526673985366769</v>
+        <v>1.556926559763251</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.314895097473183</v>
@@ -43818,7 +43620,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.530217371408115</v>
+        <v>1.570660590341927</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.471326271937968</v>
@@ -43907,7 +43709,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.539119163000283</v>
+        <v>1.577477644853167</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.30253588227513</v>
@@ -43996,7 +43798,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.528632310656281</v>
+        <v>1.572368448824045</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.408128229114924</v>
@@ -44085,7 +43887,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.562257299080307</v>
+        <v>1.616507351076225</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.438200289806081</v>
@@ -44174,7 +43976,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.556859700265683</v>
+        <v>1.615663462781988</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.41695199390835</v>
@@ -44263,7 +44065,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.568380690780027</v>
+        <v>1.631982016748546</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.811445270018624</v>
@@ -44352,7 +44154,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.563006404779683</v>
+        <v>1.627404144639552</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.699964963722657</v>
@@ -44441,7 +44243,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.56440660229219</v>
+        <v>1.62765120758387</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.720901941094147</v>
@@ -44530,7 +44332,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.552113097873205</v>
+        <v>1.610039931109908</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.593195129745958</v>
@@ -44619,7 +44421,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.570687455858842</v>
+        <v>1.634868643258639</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.701833919092141</v>
@@ -44708,7 +44510,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.597401194550997</v>
+        <v>1.661398141320061</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.547289874610497</v>
@@ -44797,7 +44599,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.57580190628253</v>
+        <v>1.640177060642094</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.677204505782913</v>
@@ -44886,7 +44688,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.58814808713034</v>
+        <v>1.643780820107629</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.565608543877956</v>
@@ -44975,7 +44777,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574738302464913</v>
+        <v>1.631566227284368</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.797857613250195</v>
@@ -45064,7 +44866,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.556268852145306</v>
+        <v>1.614826581575738</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.810299060604756</v>
@@ -45153,7 +44955,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.574301672242772</v>
+        <v>1.630158834330945</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.600566126564968</v>
@@ -45242,7 +45044,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.599880690398588</v>
+        <v>1.652131455227334</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.466123849518197</v>
@@ -45331,7 +45133,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.606169575089142</v>
+        <v>1.655072545780631</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.538869377255539</v>
@@ -45420,7 +45222,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.589452187526262</v>
+        <v>1.63811576167499</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.775633021274692</v>
@@ -45509,7 +45311,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.622552782425526</v>
+        <v>1.668818293865458</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.794151335199169</v>
@@ -45598,7 +45400,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.62083347390854</v>
+        <v>1.663879352749001</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.350628664552775</v>
@@ -45687,7 +45489,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.630412443745022</v>
+        <v>1.669713888412149</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.675447567534414</v>
@@ -45776,7 +45578,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.617574833652523</v>
+        <v>1.649917272405973</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.824630520389091</v>
@@ -45865,7 +45667,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.639692215383358</v>
+        <v>1.680010247640331</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.546272024827641</v>
@@ -45954,7 +45756,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.64166363330541</v>
+        <v>1.683092732402818</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.67949401241946</v>
@@ -46043,7 +45845,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.626410311276068</v>
+        <v>1.666521193380659</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.648706782329178</v>
@@ -46132,7 +45934,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.65354611937453</v>
+        <v>1.68859307713493</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.638334578310062</v>
@@ -46221,7 +46023,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.682747963822037</v>
+        <v>1.718666581234795</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.953145138091958</v>
@@ -46310,7 +46112,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.686327484682666</v>
+        <v>1.716942324918846</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.638772839718639</v>
@@ -46399,7 +46201,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.692413907551056</v>
+        <v>1.729923938394852</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.691637190150846</v>
@@ -46488,7 +46290,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.681622918192806</v>
+        <v>1.723361247614984</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.816331660027217</v>
@@ -46577,7 +46379,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.702286849827947</v>
+        <v>1.743035763565641</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.468228107263049</v>
@@ -46666,7 +46468,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.696577899422601</v>
+        <v>1.737524991323157</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.598115517381749</v>
@@ -46755,7 +46557,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.729546795811396</v>
+        <v>1.77022954389315</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.739273456026631</v>
@@ -46844,7 +46646,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.719878733831197</v>
+        <v>1.758052073665235</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.720962185606012</v>
@@ -46933,7 +46735,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.736089302043341</v>
+        <v>1.774024427615694</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.752025262986024</v>
@@ -47022,7 +46824,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.701374154520064</v>
+        <v>1.743974304868975</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.91940464901605</v>
@@ -47111,7 +46913,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.716667753165473</v>
+        <v>1.758940922973691</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.995594282398254</v>
@@ -47200,7 +47002,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.696180008616398</v>
+        <v>1.740694580534059</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.089268567688469</v>
@@ -47289,7 +47091,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.696285868355813</v>
+        <v>1.739293589827264</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.850811951354037</v>
@@ -47378,7 +47180,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.694578183758466</v>
+        <v>1.737617116298887</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.730952731136375</v>
@@ -47467,7 +47269,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.651629935248822</v>
+        <v>1.696727311242987</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.787091215718819</v>
@@ -47556,7 +47358,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.647319772503489</v>
+        <v>1.691298110039414</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.774276816455168</v>
@@ -47645,7 +47447,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.649666299251032</v>
+        <v>1.694461247945304</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.472401473312703</v>
@@ -47734,7 +47536,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.673773487374888</v>
+        <v>1.718207283815383</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.663261496098489</v>
@@ -47823,7 +47625,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.668625045347334</v>
+        <v>1.71214651867828</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.792211109732153</v>
@@ -47912,7 +47714,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.667056681274764</v>
+        <v>1.709841227797146</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.797740894692512</v>
@@ -48001,7 +47803,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.675470487474692</v>
+        <v>1.719730252148005</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.765505229221874</v>
@@ -48090,7 +47892,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.671317652126164</v>
+        <v>1.712474608780625</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.719644192790681</v>
@@ -48179,7 +47981,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.660023809265722</v>
+        <v>1.698600912646619</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.763971447292902</v>
@@ -48268,7 +48070,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.647949742758964</v>
+        <v>1.684332899715448</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.743701067278526</v>
@@ -48357,7 +48159,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.692649739942793</v>
+        <v>1.727321663792313</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.702860792407825</v>
@@ -48446,7 +48248,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.687335595862125</v>
+        <v>1.719159309283903</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.812917878648694</v>
@@ -48535,7 +48337,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.714066359138878</v>
+        <v>1.745220215659375</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.762944519666581</v>
@@ -48624,7 +48426,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.71432206147844</v>
+        <v>1.743492760586103</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.733891012003034</v>
@@ -48713,7 +48515,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.720564407693619</v>
+        <v>1.745288030088131</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.658651623565363</v>
@@ -48802,7 +48604,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.777096899970421</v>
+        <v>1.794809766213052</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.713542672766125</v>
@@ -48891,7 +48693,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.774881728872148</v>
+        <v>1.787940123047653</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.785603764180649</v>
@@ -48980,7 +48782,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.803054901080414</v>
+        <v>1.817376993683213</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.734302691040868</v>
@@ -49069,7 +48871,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.750783073540169</v>
+        <v>1.762875537111012</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.739696093879945</v>
@@ -49158,7 +48960,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.771643342132686</v>
+        <v>1.777525625307093</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.861522040962793</v>
@@ -49247,7 +49049,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.760506999392665</v>
+        <v>1.765257928539145</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.872287062430183</v>
@@ -49336,7 +49138,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.747260761772836</v>
+        <v>1.747652496274325</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.01006458578882</v>
@@ -49425,7 +49227,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.720518226681148</v>
+        <v>1.72694141461243</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.992590168817724</v>
@@ -49514,7 +49316,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.740965199639463</v>
+        <v>1.748687550457436</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.77000589090239</v>
@@ -49603,7 +49405,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.749149807427085</v>
+        <v>1.756260815098939</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.755472112609342</v>
@@ -49692,7 +49494,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.736017640457329</v>
+        <v>1.742409081606982</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.511993574809493</v>
@@ -49781,7 +49583,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.75137770681459</v>
+        <v>1.756383474975342</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.858122034406843</v>
@@ -49870,7 +49672,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.751368215863676</v>
+        <v>1.756832461896194</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.851193243118203</v>
@@ -49959,7 +49761,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.700378090145293</v>
+        <v>1.712352192473794</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.681516749077435</v>
@@ -50048,7 +49850,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.708538433021427</v>
+        <v>1.721684653061768</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.727368117752555</v>
